--- a/apps/load_data/2019/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/11/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY1119\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\HHY1119\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE652ECD-BD96-4215-B28F-EB5ECE9E43E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F21C67-47A2-425E-BE69-70C36C1AF7F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$274</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$274</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11919" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="3295">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7216,9 +7217,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8512,9 +8510,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8870,9 +8865,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9922,7 +9914,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10762,10 +10754,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD251" sqref="AC180:AD251"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44795,12 +44789,7 @@
       <c r="AB180" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44853,7 +44842,7 @@
         <v>19</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>113</v>
@@ -44865,10 +44854,10 @@
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="BI180" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="BI180" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="BM180" s="1" t="s">
         <v>118</v>
@@ -44883,13 +44872,13 @@
         <v>159</v>
       </c>
       <c r="BR180" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BS180" s="3">
         <v>36225</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -44910,19 +44899,19 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CG180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>130</v>
@@ -44960,13 +44949,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44998,12 +44987,7 @@
       <c r="AB181" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -45050,7 +45034,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BB181" s="1">
         <v>11</v>
@@ -45059,7 +45043,7 @@
         <v>19</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>113</v>
@@ -45071,10 +45055,10 @@
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2414</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45086,13 +45070,13 @@
         <v>102</v>
       </c>
       <c r="BR181" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BS181" s="3">
         <v>36949</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45116,19 +45100,19 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="CD181" s="1" t="s">
         <v>2058</v>
       </c>
       <c r="CE181" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="CG181" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="CG181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="CH181" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="CI181" s="1" t="s">
         <v>130</v>
@@ -45166,13 +45150,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -45204,12 +45188,7 @@
       <c r="AB182" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45256,7 +45235,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BB182" s="1">
         <v>11</v>
@@ -45265,7 +45244,7 @@
         <v>19</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>113</v>
@@ -45277,10 +45256,10 @@
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45295,13 +45274,13 @@
         <v>159</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BS182" s="3">
         <v>36825</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45325,19 +45304,19 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="CD182" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="CD182" s="1" t="s">
+      <c r="CE182" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CG182" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>130</v>
@@ -45375,13 +45354,13 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45410,12 +45389,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45465,7 +45439,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BB183" s="1">
         <v>11</v>
@@ -45474,7 +45448,7 @@
         <v>19</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>113</v>
@@ -45486,7 +45460,7 @@
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>754</v>
@@ -45498,7 +45472,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45516,16 +45490,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>760</v>
@@ -45566,13 +45540,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45604,12 +45578,7 @@
       <c r="AB184" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -45659,7 +45628,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BB184" s="1">
         <v>11</v>
@@ -45668,7 +45637,7 @@
         <v>19</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -45680,7 +45649,7 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>382</v>
@@ -45692,7 +45661,7 @@
         <v>105</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45713,13 +45682,13 @@
         <v>692</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>390</v>
@@ -45760,13 +45729,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45795,12 +45764,7 @@
       <c r="AA185" s="1">
         <v>0</v>
       </c>
-      <c r="AC185" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD185" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC185" s="3"/>
       <c r="AF185" s="1" t="s">
         <v>106</v>
       </c>
@@ -45850,7 +45814,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BB185" s="1">
         <v>11</v>
@@ -45859,7 +45823,7 @@
         <v>19</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>113</v>
@@ -45871,7 +45835,7 @@
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>969</v>
@@ -45883,7 +45847,7 @@
         <v>105</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -45901,16 +45865,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CD185" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CE185" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CD185" s="1" t="s">
-        <v>2462</v>
-      </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>974</v>
@@ -45951,13 +45915,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45992,12 +45956,7 @@
       <c r="AA186" s="1">
         <v>0</v>
       </c>
-      <c r="AC186" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD186" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC186" s="3"/>
       <c r="AF186" s="1" t="s">
         <v>106</v>
       </c>
@@ -46044,7 +46003,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BB186" s="1">
         <v>11</v>
@@ -46053,7 +46012,7 @@
         <v>19</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -46065,7 +46024,7 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>422</v>
@@ -46080,13 +46039,13 @@
         <v>119</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BS186" s="3">
         <v>35243</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46104,16 +46063,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>429</v>
@@ -46154,13 +46113,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -46189,12 +46148,7 @@
       <c r="AA187" s="1">
         <v>0</v>
       </c>
-      <c r="AC187" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD187" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC187" s="3"/>
       <c r="AF187" s="1" t="s">
         <v>106</v>
       </c>
@@ -46244,7 +46198,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BB187" s="1">
         <v>11</v>
@@ -46253,7 +46207,7 @@
         <v>19</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -46265,7 +46219,7 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BI187" s="1" t="s">
         <v>969</v>
@@ -46277,7 +46231,7 @@
         <v>105</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46295,16 +46249,16 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>974</v>
@@ -46345,13 +46299,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -46380,12 +46334,7 @@
       <c r="AA188" s="1">
         <v>0</v>
       </c>
-      <c r="AC188" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD188" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC188" s="3"/>
       <c r="AF188" s="1" t="s">
         <v>106</v>
       </c>
@@ -46435,7 +46384,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BB188" s="1">
         <v>11</v>
@@ -46444,7 +46393,7 @@
         <v>19</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46456,7 +46405,7 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>969</v>
@@ -46471,7 +46420,7 @@
         <v>159</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46489,16 +46438,16 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="CD188" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="CD188" s="1" t="s">
+      <c r="CE188" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>974</v>
@@ -46539,13 +46488,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46574,12 +46523,7 @@
       <c r="AA189" s="1">
         <v>0</v>
       </c>
-      <c r="AC189" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD189" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC189" s="3"/>
       <c r="AF189" s="1" t="s">
         <v>106</v>
       </c>
@@ -46626,7 +46570,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BB189" s="1">
         <v>11</v>
@@ -46635,7 +46579,7 @@
         <v>19</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46647,7 +46591,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>466</v>
@@ -46662,13 +46606,13 @@
         <v>219</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BS189" s="3">
         <v>34307</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46686,16 +46630,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="CD189" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>473</v>
@@ -46736,13 +46680,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46774,12 +46718,7 @@
       <c r="AA190" s="1">
         <v>0</v>
       </c>
-      <c r="AC190" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD190" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC190" s="3"/>
       <c r="AF190" s="1" t="s">
         <v>106</v>
       </c>
@@ -46829,7 +46768,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BB190" s="1">
         <v>11</v>
@@ -46838,7 +46777,7 @@
         <v>19</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46850,7 +46789,7 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>382</v>
@@ -46862,7 +46801,7 @@
         <v>105</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46883,16 +46822,16 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>390</v>
@@ -46933,13 +46872,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46968,12 +46907,7 @@
       <c r="AA191" s="1">
         <v>0</v>
       </c>
-      <c r="AC191" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD191" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC191" s="3"/>
       <c r="AF191" s="1" t="s">
         <v>106</v>
       </c>
@@ -47020,7 +46954,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB191" s="1">
         <v>11</v>
@@ -47029,7 +46963,7 @@
         <v>19</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -47041,10 +46975,10 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2527</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>118</v>
@@ -47056,13 +46990,13 @@
         <v>119</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BS191" s="3">
         <v>35950</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47080,19 +47014,19 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>1850</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="CG191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2532</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2533</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -47130,10 +47064,10 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>1682</v>
@@ -47214,7 +47148,7 @@
         <v>2224</v>
       </c>
       <c r="CE192" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="193" spans="1:87" x14ac:dyDescent="0.25">
@@ -47249,13 +47183,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -47336,7 +47270,7 @@
         <v>101</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BB193" s="1">
         <v>11</v>
@@ -47345,7 +47279,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47357,7 +47291,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1898</v>
@@ -47372,7 +47306,7 @@
         <v>159</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47390,16 +47324,16 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="CD193" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1902</v>
@@ -47440,13 +47374,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47521,7 +47455,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BB194" s="1">
         <v>11</v>
@@ -47530,7 +47464,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47542,10 +47476,10 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47557,13 +47491,13 @@
         <v>219</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BS194" s="3">
         <v>36099</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47581,19 +47515,19 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47631,13 +47565,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47712,7 +47646,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB195" s="1">
         <v>11</v>
@@ -47721,7 +47655,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47733,10 +47667,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47748,13 +47682,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BS195" s="3">
         <v>37735</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47772,19 +47706,19 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47822,13 +47756,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47906,7 +47840,7 @@
         <v>101</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BB196" s="1">
         <v>11</v>
@@ -47915,7 +47849,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47927,7 +47861,7 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>382</v>
@@ -47939,7 +47873,7 @@
         <v>105</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47957,16 +47891,16 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>895</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>390</v>
@@ -48007,13 +47941,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -48046,7 +47980,7 @@
         <v>106</v>
       </c>
       <c r="AG197" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AH197" s="1" t="s">
         <v>1979</v>
@@ -48091,7 +48025,7 @@
         <v>101</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BB197" s="1">
         <v>11</v>
@@ -48100,7 +48034,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -48112,7 +48046,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48121,7 +48055,7 @@
         <v>105</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48142,13 +48076,13 @@
         <v>1635</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>130</v>
@@ -48189,13 +48123,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48273,7 +48207,7 @@
         <v>101</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BB198" s="1">
         <v>11</v>
@@ -48282,7 +48216,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -48294,10 +48228,10 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48309,13 +48243,13 @@
         <v>102</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BS198" s="3">
         <v>43602</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48339,13 +48273,13 @@
         <v>983</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="CG198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>130</v>
@@ -48383,13 +48317,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2608</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48467,7 +48401,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BB199" s="1">
         <v>11</v>
@@ -48476,7 +48410,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48488,10 +48422,10 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48500,7 +48434,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48518,19 +48452,19 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="CG199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2619</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>130</v>
@@ -48565,16 +48499,16 @@
         <v>1596</v>
       </c>
       <c r="J200" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="K200" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="K200" s="1" t="s">
+      <c r="L200" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48613,7 +48547,7 @@
         <v>42247</v>
       </c>
       <c r="AD200" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="AF200" s="1" t="s">
         <v>106</v>
@@ -48667,7 +48601,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48679,10 +48613,10 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -48694,13 +48628,13 @@
         <v>219</v>
       </c>
       <c r="BR200" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BS200" s="3">
         <v>36580</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48712,7 +48646,7 @@
         <v>0</v>
       </c>
       <c r="BZ200" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="CA200" s="1" t="s">
         <v>124</v>
@@ -48721,7 +48655,7 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>294</v>
@@ -48730,10 +48664,10 @@
         <v>1664</v>
       </c>
       <c r="CG200" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="CH200" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -48771,13 +48705,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48858,7 +48792,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48870,7 +48804,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1898</v>
@@ -48885,13 +48819,13 @@
         <v>119</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BS201" s="3">
         <v>37747</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48915,10 +48849,10 @@
         <v>680</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1902</v>
@@ -48959,13 +48893,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -49049,7 +48983,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -49061,7 +48995,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>118</v>
@@ -49070,7 +49004,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49088,16 +49022,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>130</v>
@@ -49138,13 +49072,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -49228,7 +49162,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -49240,7 +49174,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>969</v>
@@ -49252,7 +49186,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49270,16 +49204,16 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2662</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>974</v>
@@ -49320,13 +49254,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49407,7 +49341,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49419,10 +49353,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49434,13 +49368,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BS204" s="3">
         <v>37334</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49461,16 +49395,16 @@
         <v>524</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49508,13 +49442,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49595,7 +49529,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49607,10 +49541,10 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2679</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="BM205" s="1" t="s">
         <v>118</v>
@@ -49622,13 +49556,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BS205" s="3">
         <v>37904</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49649,16 +49583,16 @@
         <v>983</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="CG205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>130</v>
@@ -49696,13 +49630,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49783,7 +49717,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49795,7 +49729,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>382</v>
@@ -49810,13 +49744,13 @@
         <v>119</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BS206" s="3">
         <v>36111</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49834,16 +49768,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="CD206" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="CE206" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CG206" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>390</v>
@@ -49884,13 +49818,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49971,7 +49905,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49983,10 +49917,10 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="BI207" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="BI207" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -49998,13 +49932,13 @@
         <v>119</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BS207" s="3">
         <v>37785</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50022,19 +49956,19 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CG207" s="1" t="s">
+      <c r="CH207" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="CI207" s="1" t="s">
         <v>130</v>
@@ -50072,13 +50006,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -50162,7 +50096,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -50174,7 +50108,7 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BI208" s="1" t="s">
         <v>1956</v>
@@ -50186,7 +50120,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50207,13 +50141,13 @@
         <v>1298</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="CE208" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>1963</v>
@@ -50254,13 +50188,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -50338,7 +50272,7 @@
         <v>101</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BB209" s="1">
         <v>11</v>
@@ -50347,7 +50281,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -50359,7 +50293,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -50368,7 +50302,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50386,16 +50320,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2728</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2729</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>130</v>
@@ -50436,13 +50370,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50520,7 +50454,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BB210" s="1">
         <v>11</v>
@@ -50529,7 +50463,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50541,7 +50475,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1898</v>
@@ -50553,7 +50487,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50571,16 +50505,16 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="CE210" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>1902</v>
@@ -50621,13 +50555,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -50705,7 +50639,7 @@
         <v>101</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BB211" s="1">
         <v>11</v>
@@ -50714,7 +50648,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -50726,7 +50660,7 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>118</v>
@@ -50735,7 +50669,7 @@
         <v>105</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -50756,13 +50690,13 @@
         <v>1151</v>
       </c>
       <c r="CD211" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="CE211" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="CG211" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="CH211" s="1" t="s">
         <v>130</v>
@@ -50803,13 +50737,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -50887,7 +50821,7 @@
         <v>101</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BB212" s="1">
         <v>11</v>
@@ -50896,7 +50830,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50908,7 +50842,7 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1956</v>
@@ -50926,13 +50860,13 @@
         <v>159</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BS212" s="3">
         <v>37513</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50950,16 +50884,16 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE212" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="CG212" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>1963</v>
@@ -51000,13 +50934,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2761</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2762</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -51087,7 +51021,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -51099,10 +51033,10 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>118</v>
@@ -51114,13 +51048,13 @@
         <v>102</v>
       </c>
       <c r="BR213" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BS213" s="3">
         <v>41024</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -51138,19 +51072,19 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="CD213" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="CD213" s="1" t="s">
+      <c r="CE213" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="CG213" s="1" t="s">
+      <c r="CH213" s="1" t="s">
         <v>2771</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2772</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>130</v>
@@ -51188,13 +51122,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2775</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -51227,7 +51161,7 @@
         <v>106</v>
       </c>
       <c r="AG214" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AH214" s="1" t="s">
         <v>1979</v>
@@ -51251,28 +51185,28 @@
         <v>110</v>
       </c>
       <c r="AQ214" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="AR214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY214" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ214" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="AR214" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS214" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT214" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU214" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV214" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY214" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ214" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="BB214" s="1">
         <v>11</v>
@@ -51281,7 +51215,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -51293,7 +51227,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>1956</v>
@@ -51308,13 +51242,13 @@
         <v>119</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BS214" s="3">
         <v>34808</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -51332,16 +51266,16 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="CE214" s="1" t="s">
+      <c r="CG214" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>1963</v>
@@ -51382,13 +51316,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -51463,7 +51397,7 @@
         <v>101</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BB215" s="1">
         <v>11</v>
@@ -51472,7 +51406,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -51484,10 +51418,10 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>118</v>
@@ -51499,13 +51433,13 @@
         <v>102</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BS215" s="3">
         <v>37336</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -51523,19 +51457,19 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="CG215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2799</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>130</v>
@@ -51573,13 +51507,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -51657,7 +51591,7 @@
         <v>101</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BB216" s="1">
         <v>11</v>
@@ -51666,7 +51600,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -51678,7 +51612,7 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>754</v>
@@ -51690,7 +51624,7 @@
         <v>105</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51708,16 +51642,16 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2809</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>760</v>
@@ -51758,13 +51692,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2812</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2813</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -51848,7 +51782,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -51860,7 +51794,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -51869,7 +51803,7 @@
         <v>105</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51887,16 +51821,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>130</v>
@@ -51919,7 +51853,7 @@
         <v>90</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>92</v>
@@ -51931,16 +51865,16 @@
         <v>94</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>110</v>
@@ -52009,7 +51943,7 @@
         <v>0</v>
       </c>
       <c r="BZ218" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="CA218" s="1" t="s">
         <v>124</v>
@@ -52021,7 +51955,7 @@
         <v>2224</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="219" spans="1:87" x14ac:dyDescent="0.25">
@@ -52056,13 +51990,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2828</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -52097,12 +52031,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -52152,7 +52081,7 @@
         <v>101</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="BB219" s="1">
         <v>11</v>
@@ -52161,7 +52090,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -52173,10 +52102,10 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -52185,7 +52114,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -52209,16 +52138,16 @@
         <v>1202</v>
       </c>
       <c r="CD219" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="CE219" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="CG219" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CH219" s="1" t="s">
         <v>2836</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2837</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2838</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>130</v>
@@ -52256,10 +52185,10 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>110</v>
@@ -52283,7 +52212,7 @@
         <v>106</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>61</v>
@@ -52328,7 +52257,7 @@
         <v>0</v>
       </c>
       <c r="BZ220" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="CA220" s="1" t="s">
         <v>124</v>
@@ -52340,7 +52269,7 @@
         <v>2224</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="221" spans="1:87" x14ac:dyDescent="0.25">
@@ -52375,10 +52304,10 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>110</v>
@@ -52465,7 +52394,7 @@
         <v>2224</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="222" spans="1:87" x14ac:dyDescent="0.25">
@@ -52482,7 +52411,7 @@
         <v>90</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>92</v>
@@ -52494,16 +52423,16 @@
         <v>94</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>110</v>
@@ -52572,7 +52501,7 @@
         <v>0</v>
       </c>
       <c r="BZ222" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="CA222" s="1" t="s">
         <v>124</v>
@@ -52584,7 +52513,7 @@
         <v>2224</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="223" spans="1:87" x14ac:dyDescent="0.25">
@@ -52619,10 +52548,10 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>110</v>
@@ -52646,7 +52575,7 @@
         <v>106</v>
       </c>
       <c r="AG223" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AH223" s="1" t="s">
         <v>378</v>
@@ -52703,7 +52632,7 @@
         <v>2224</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="224" spans="1:87" x14ac:dyDescent="0.25">
@@ -52738,10 +52667,10 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>110</v>
@@ -52765,7 +52694,7 @@
         <v>106</v>
       </c>
       <c r="AG224" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AH224" s="1" t="s">
         <v>378</v>
@@ -52822,7 +52751,7 @@
         <v>2224</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="225" spans="1:87" x14ac:dyDescent="0.25">
@@ -52857,10 +52786,10 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>110</v>
@@ -52884,7 +52813,7 @@
         <v>106</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>378</v>
@@ -52941,7 +52870,7 @@
         <v>2224</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="226" spans="1:87" x14ac:dyDescent="0.25">
@@ -52976,10 +52905,10 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>110</v>
@@ -53003,7 +52932,7 @@
         <v>106</v>
       </c>
       <c r="AG226" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AH226" s="1" t="s">
         <v>378</v>
@@ -53060,7 +52989,7 @@
         <v>2224</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="227" spans="1:87" x14ac:dyDescent="0.25">
@@ -53095,10 +53024,10 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>110</v>
@@ -53179,7 +53108,7 @@
         <v>2224</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="228" spans="1:87" x14ac:dyDescent="0.25">
@@ -53214,10 +53143,10 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>110</v>
@@ -53298,7 +53227,7 @@
         <v>2224</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="229" spans="1:87" x14ac:dyDescent="0.25">
@@ -53333,10 +53262,10 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>110</v>
@@ -53417,7 +53346,7 @@
         <v>2224</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="230" spans="1:87" x14ac:dyDescent="0.25">
@@ -53452,10 +53381,10 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>110</v>
@@ -53536,7 +53465,7 @@
         <v>2224</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="231" spans="1:87" x14ac:dyDescent="0.25">
@@ -53571,13 +53500,13 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="N231" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2866</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
@@ -53606,12 +53535,7 @@
       <c r="AA231" s="1">
         <v>0</v>
       </c>
-      <c r="AC231" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD231" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC231" s="3"/>
       <c r="AF231" s="1" t="s">
         <v>106</v>
       </c>
@@ -53664,7 +53588,7 @@
         <v>19</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="BE231" s="1" t="s">
         <v>113</v>
@@ -53676,7 +53600,7 @@
         <v>115</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>382</v>
@@ -53691,13 +53615,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="BS231" s="3">
         <v>36306</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -53715,16 +53639,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="CD231" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="CE231" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CG231" s="1" t="s">
         <v>2872</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2873</v>
-      </c>
-      <c r="CG231" s="1" t="s">
-        <v>2874</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>390</v>
@@ -53765,13 +53689,13 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="N232" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>2876</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2877</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>100</v>
@@ -53800,12 +53724,7 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>106</v>
       </c>
@@ -53861,7 +53780,7 @@
         <v>19</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="BE232" s="1" t="s">
         <v>113</v>
@@ -53873,7 +53792,7 @@
         <v>115</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1898</v>
@@ -53885,7 +53804,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -53903,16 +53822,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>1902</v>
@@ -53953,13 +53872,13 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>2884</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>100</v>
@@ -53991,12 +53910,7 @@
       <c r="AB233" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC233" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD233" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC233" s="3"/>
       <c r="AF233" s="1" t="s">
         <v>106</v>
       </c>
@@ -54049,7 +53963,7 @@
         <v>19</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="BE233" s="1" t="s">
         <v>113</v>
@@ -54061,7 +53975,7 @@
         <v>115</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1956</v>
@@ -54076,13 +53990,13 @@
         <v>102</v>
       </c>
       <c r="BR233" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="BS233" s="3">
         <v>38234</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54100,16 +54014,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>1963</v>
@@ -54150,13 +54064,13 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="N234" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>100</v>
@@ -54185,12 +54099,7 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>106</v>
       </c>
@@ -54246,7 +54155,7 @@
         <v>19</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="BE234" s="1" t="s">
         <v>113</v>
@@ -54258,7 +54167,7 @@
         <v>115</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>754</v>
@@ -54270,7 +54179,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54288,16 +54197,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="CD234" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="CD234" s="1" t="s">
+      <c r="CG234" s="1" t="s">
         <v>2901</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="CG234" s="1" t="s">
-        <v>2903</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>760</v>
@@ -54338,13 +54247,13 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="N235" s="1" t="s">
         <v>2904</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>100</v>
@@ -54376,12 +54285,7 @@
       <c r="AB235" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AE235" s="3">
         <v>43611</v>
       </c>
@@ -54440,13 +54344,13 @@
         <v>19</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="BG235" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54455,7 +54359,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54473,16 +54377,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="CE235" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CG235" s="1" t="s">
         <v>2911</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54523,13 +54427,13 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="N236" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2916</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54558,12 +54462,7 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
@@ -54616,7 +54515,7 @@
         <v>19</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BE236" s="1" t="s">
         <v>113</v>
@@ -54628,10 +54527,10 @@
         <v>115</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="BI236" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -54643,13 +54542,13 @@
         <v>219</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="BS236" s="3">
         <v>37069</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -54670,16 +54569,16 @@
         <v>770</v>
       </c>
       <c r="CD236" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="CE236" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="CG236" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="CE236" s="1" t="s">
+      <c r="CH236" s="1" t="s">
         <v>2923</v>
-      </c>
-      <c r="CG236" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="CH236" s="1" t="s">
-        <v>2925</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>130</v>
@@ -54717,13 +54616,13 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="N237" s="1" t="s">
         <v>2926</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2928</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54752,12 +54651,7 @@
       <c r="AA237" s="1">
         <v>0</v>
       </c>
-      <c r="AC237" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD237" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC237" s="3"/>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
@@ -54813,7 +54707,7 @@
         <v>19</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>113</v>
@@ -54825,7 +54719,7 @@
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="BI237" s="1" t="s">
         <v>969</v>
@@ -54837,7 +54731,7 @@
         <v>105</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -54855,16 +54749,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="CD237" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="CE237" s="1" t="s">
         <v>2932</v>
       </c>
-      <c r="CD237" s="1" t="s">
+      <c r="CG237" s="1" t="s">
         <v>2933</v>
-      </c>
-      <c r="CE237" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="CG237" s="1" t="s">
-        <v>2935</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>974</v>
@@ -54905,13 +54799,13 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="N238" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2938</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54947,7 +54841,7 @@
         <v>43403</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="AE238" s="3">
         <v>43700</v>
@@ -55001,7 +54895,7 @@
         <v>101</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="BB238" s="1">
         <v>11</v>
@@ -55010,13 +54904,13 @@
         <v>19</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
@@ -55025,7 +54919,7 @@
         <v>105</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55043,16 +54937,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>2069</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55093,13 +54987,13 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>2946</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -55128,12 +55022,7 @@
       <c r="AA239" s="1">
         <v>0</v>
       </c>
-      <c r="AC239" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD239" s="1" t="s">
-        <v>2949</v>
-      </c>
+      <c r="AC239" s="3"/>
       <c r="AF239" s="1" t="s">
         <v>106</v>
       </c>
@@ -55180,7 +55069,7 @@
         <v>101</v>
       </c>
       <c r="AZ239" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BB239" s="1">
         <v>11</v>
@@ -55189,7 +55078,7 @@
         <v>19</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>113</v>
@@ -55201,13 +55090,13 @@
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BI239" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BJ239" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
@@ -55219,13 +55108,13 @@
         <v>219</v>
       </c>
       <c r="BR239" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BS239" s="3">
         <v>35125</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55243,22 +55132,22 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CD239" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE239" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="CG239" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="CH239" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="CI239" s="1" t="s">
         <v>2958</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="CH239" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="CI239" s="1" t="s">
-        <v>2961</v>
       </c>
     </row>
     <row r="240" spans="1:87" x14ac:dyDescent="0.25">
@@ -55293,13 +55182,13 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55383,7 +55272,7 @@
         <v>19</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
@@ -55392,7 +55281,7 @@
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55410,13 +55299,13 @@
         <v>92</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CG240" s="1" t="s">
         <v>130</v>
@@ -55460,13 +55349,13 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55550,7 +55439,7 @@
         <v>19</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
@@ -55559,7 +55448,7 @@
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55580,10 +55469,10 @@
         <v>564</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CG241" s="1" t="s">
         <v>130</v>
@@ -55627,13 +55516,13 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55720,7 +55609,7 @@
         <v>19</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
@@ -55729,7 +55618,7 @@
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -55738,7 +55627,7 @@
         <v>0</v>
       </c>
       <c r="BZ242" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="CA242" s="1" t="s">
         <v>124</v>
@@ -55747,13 +55636,13 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CG242" s="1" t="s">
         <v>130</v>
@@ -55791,7 +55680,7 @@
         <v>94</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>96</v>
@@ -55800,10 +55689,10 @@
         <v>250</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>252</v>
@@ -55833,7 +55722,7 @@
         <v>42582</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>106</v>
@@ -55890,13 +55779,13 @@
         <v>0</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BI243" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
@@ -55941,10 +55830,10 @@
         <v>262</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>130</v>
@@ -55964,7 +55853,7 @@
         <v>228</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>92</v>
@@ -55982,16 +55871,16 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="Q244" s="3">
         <v>17060</v>
@@ -56024,13 +55913,13 @@
         <v>42628</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>138</v>
@@ -56075,22 +55964,22 @@
         <v>101</v>
       </c>
       <c r="AZ244" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="BB244" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC244" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD244" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="BH244" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="BI244" s="1" t="s">
         <v>3000</v>
-      </c>
-      <c r="BB244" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC244" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD244" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="BH244" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="BI244" s="1" t="s">
-        <v>3003</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
@@ -56099,7 +55988,7 @@
         <v>105</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56108,7 +55997,7 @@
         <v>0</v>
       </c>
       <c r="BZ244" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CA244" s="1" t="s">
         <v>124</v>
@@ -56123,13 +56012,13 @@
         <v>126</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH244" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CI244" s="1" t="s">
         <v>130</v>
@@ -56149,7 +56038,7 @@
         <v>228</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>101</v>
@@ -56167,16 +56056,16 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="Q245" s="3">
         <v>26864</v>
@@ -56206,7 +56095,7 @@
         <v>42735</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>106</v>
@@ -56260,10 +56149,10 @@
         <v>0</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
@@ -56275,13 +56164,13 @@
         <v>219</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BS245" s="3">
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56293,7 +56182,7 @@
         <v>110</v>
       </c>
       <c r="BZ245" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CA245" s="1" t="s">
         <v>124</v>
@@ -56302,16 +56191,16 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="CD245" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="CG245" s="1" t="s">
         <v>3018</v>
-      </c>
-      <c r="CD245" s="1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>3020</v>
-      </c>
-      <c r="CG245" s="1" t="s">
-        <v>3021</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56355,10 +56244,10 @@
         <v>1883</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>1885</v>
@@ -56391,7 +56280,7 @@
         <v>39800</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>234</v>
@@ -56445,10 +56334,10 @@
         <v>0</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
@@ -56499,7 +56388,7 @@
         <v>1891</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56522,7 +56411,7 @@
         <v>90</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>101</v>
@@ -56534,22 +56423,22 @@
         <v>94</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="Q247" s="3">
         <v>17470</v>
@@ -56579,7 +56468,7 @@
         <v>43100</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>106</v>
@@ -56636,10 +56525,10 @@
         <v>0</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
@@ -56648,7 +56537,7 @@
         <v>105</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56672,16 +56561,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CG247" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56722,16 +56611,16 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="Q248" s="3">
         <v>23356</v>
@@ -56758,7 +56647,7 @@
         <v>43105</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>106</v>
@@ -56812,10 +56701,10 @@
         <v>0</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
@@ -56827,13 +56716,13 @@
         <v>102</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BS248" s="3">
         <v>34412</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56851,16 +56740,16 @@
         <v>101</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -56901,16 +56790,16 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="Q249" s="3">
         <v>17726</v>
@@ -56943,7 +56832,7 @@
         <v>43312</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>234</v>
@@ -56994,7 +56883,7 @@
         <v>101</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BB249" s="1">
         <v>0</v>
@@ -57003,10 +56892,10 @@
         <v>0</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
@@ -57015,7 +56904,7 @@
         <v>105</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57033,16 +56922,16 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>921</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57065,7 +56954,7 @@
         <v>90</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>92</v>
@@ -57077,22 +56966,22 @@
         <v>94</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="Q250" s="3">
         <v>17041</v>
@@ -57119,7 +57008,7 @@
         <v>42735</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>106</v>
@@ -57176,10 +57065,10 @@
         <v>0</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
@@ -57188,7 +57077,7 @@
         <v>105</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57200,7 +57089,7 @@
         <v>110</v>
       </c>
       <c r="BZ250" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="CA250" s="1" t="s">
         <v>124</v>
@@ -57209,16 +57098,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>3064</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3067</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57259,16 +57148,16 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="Q251" s="3">
         <v>30147</v>
@@ -57291,17 +57180,12 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>2829</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>378</v>
@@ -57349,10 +57233,10 @@
         <v>0</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
@@ -57364,13 +57248,13 @@
         <v>102</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BS251" s="3">
         <v>37124</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57388,16 +57272,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CD251" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57438,16 +57322,16 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="Q252" s="3">
         <v>17821</v>
@@ -57483,7 +57367,7 @@
         <v>43388</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>106</v>
@@ -57534,7 +57418,7 @@
         <v>101</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BB252" s="1">
         <v>0</v>
@@ -57543,10 +57427,10 @@
         <v>0</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
@@ -57555,7 +57439,7 @@
         <v>105</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57573,16 +57457,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>511</v>
       </c>
       <c r="CG252" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57623,13 +57507,13 @@
         <v>799</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -57680,7 +57564,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57716,7 +57600,7 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>113</v>
@@ -57728,13 +57612,13 @@
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57761,10 +57645,10 @@
         <v>1100</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -57805,13 +57689,13 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57898,7 +57782,7 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>113</v>
@@ -57910,13 +57794,13 @@
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57937,13 +57821,13 @@
         <v>1263</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -57984,13 +57868,13 @@
         <v>799</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -58041,7 +57925,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58077,7 +57961,7 @@
         <v>19</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>113</v>
@@ -58089,13 +57973,13 @@
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58116,16 +58000,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="CD255" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="CG255" s="1" t="s">
         <v>3112</v>
-      </c>
-      <c r="CD255" s="1" t="s">
-        <v>3113</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3114</v>
-      </c>
-      <c r="CG255" s="1" t="s">
-        <v>3115</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58166,13 +58050,13 @@
         <v>799</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -58259,7 +58143,7 @@
         <v>19</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>113</v>
@@ -58271,13 +58155,13 @@
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58298,7 +58182,7 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>605</v>
@@ -58307,7 +58191,7 @@
         <v>511</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58348,13 +58232,13 @@
         <v>799</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58408,7 +58292,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -58444,7 +58328,7 @@
         <v>19</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>113</v>
@@ -58456,13 +58340,13 @@
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58486,13 +58370,13 @@
         <v>495</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58533,13 +58417,13 @@
         <v>799</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58626,7 +58510,7 @@
         <v>19</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>113</v>
@@ -58638,13 +58522,13 @@
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58665,16 +58549,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CD258" s="1" t="s">
         <v>616</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58715,13 +58599,13 @@
         <v>799</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58757,7 +58641,7 @@
         <v>106</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>1272</v>
@@ -58775,7 +58659,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -58811,7 +58695,7 @@
         <v>19</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>113</v>
@@ -58823,13 +58707,13 @@
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58850,16 +58734,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="CD259" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58900,13 +58784,13 @@
         <v>799</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -58960,7 +58844,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -58996,7 +58880,7 @@
         <v>19</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BE260" s="1" t="s">
         <v>113</v>
@@ -59008,13 +58892,13 @@
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59038,13 +58922,13 @@
         <v>1009</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59085,13 +58969,13 @@
         <v>799</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -59145,7 +59029,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -59181,7 +59065,7 @@
         <v>19</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BE261" s="1" t="s">
         <v>113</v>
@@ -59193,13 +59077,13 @@
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59226,10 +59110,10 @@
         <v>2181</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59270,13 +59154,13 @@
         <v>799</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="L262" s="1" t="s">
         <v>2327</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -59312,7 +59196,7 @@
         <v>106</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>1272</v>
@@ -59327,7 +59211,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -59360,19 +59244,19 @@
         <v>19</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59390,16 +59274,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="CG262" s="1" t="s">
         <v>3177</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="CG262" s="1" t="s">
-        <v>3180</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59440,19 +59324,19 @@
         <v>799</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="L263" s="1" t="s">
         <v>2335</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="Q263" s="3">
         <v>16452</v>
@@ -59530,19 +59414,19 @@
         <v>19</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59563,16 +59447,16 @@
         <v>2244</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3187</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3190</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59613,13 +59497,13 @@
         <v>799</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -59703,19 +59587,19 @@
         <v>19</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59736,13 +59620,13 @@
         <v>1216</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59783,13 +59667,13 @@
         <v>799</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -59840,7 +59724,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59876,7 +59760,7 @@
         <v>19</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BE265" s="1" t="s">
         <v>113</v>
@@ -59888,13 +59772,13 @@
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59915,16 +59799,16 @@
         <v>101</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59965,13 +59849,13 @@
         <v>799</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -60025,7 +59909,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -60061,7 +59945,7 @@
         <v>19</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BE266" s="1" t="s">
         <v>113</v>
@@ -60073,13 +59957,13 @@
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -60100,16 +59984,16 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="CD266" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="CE266" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="CG266" s="1" t="s">
         <v>3215</v>
-      </c>
-      <c r="CD266" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="CE266" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="CG266" s="1" t="s">
-        <v>3218</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -60150,13 +60034,13 @@
         <v>799</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -60210,7 +60094,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -60246,7 +60130,7 @@
         <v>19</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BE267" s="1" t="s">
         <v>113</v>
@@ -60258,13 +60142,13 @@
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -60285,16 +60169,16 @@
         <v>101</v>
       </c>
       <c r="CC267" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="CD267" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="CE267" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="CG267" s="1" t="s">
         <v>3225</v>
-      </c>
-      <c r="CD267" s="1" t="s">
-        <v>3226</v>
-      </c>
-      <c r="CE267" s="1" t="s">
-        <v>3227</v>
-      </c>
-      <c r="CG267" s="1" t="s">
-        <v>3228</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -60335,13 +60219,13 @@
         <v>799</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -60428,7 +60312,7 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BE268" s="1" t="s">
         <v>113</v>
@@ -60440,13 +60324,13 @@
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60467,16 +60351,16 @@
         <v>101</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CE268" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60517,13 +60401,13 @@
         <v>799</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -60577,7 +60461,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60613,7 +60497,7 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BE269" s="1" t="s">
         <v>113</v>
@@ -60625,19 +60509,19 @@
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW269" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BX269" s="1">
         <v>0</v>
@@ -60655,16 +60539,16 @@
         <v>101</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CD269" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60705,13 +60589,13 @@
         <v>799</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -60762,7 +60646,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60798,7 +60682,7 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BE270" s="1" t="s">
         <v>113</v>
@@ -60810,13 +60694,13 @@
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -60837,16 +60721,16 @@
         <v>101</v>
       </c>
       <c r="CC270" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60887,13 +60771,13 @@
         <v>799</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -60920,7 +60804,7 @@
         <v>0</v>
       </c>
       <c r="AG271" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AH271" s="1" t="s">
         <v>378</v>
@@ -60935,7 +60819,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60965,7 +60849,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -60977,13 +60861,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -61001,16 +60885,16 @@
         <v>101</v>
       </c>
       <c r="CC271" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="CD271" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -61051,13 +60935,13 @@
         <v>799</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -61141,7 +61025,7 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BE272" s="1" t="s">
         <v>113</v>
@@ -61153,13 +61037,13 @@
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -61177,16 +61061,16 @@
         <v>101</v>
       </c>
       <c r="CC272" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="CD272" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CG272" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="CD272" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="CG272" s="1" t="s">
-        <v>3276</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -61227,13 +61111,13 @@
         <v>799</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -61320,7 +61204,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -61332,13 +61216,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -61356,16 +61240,16 @@
         <v>101</v>
       </c>
       <c r="CC273" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="CD273" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="CG273" s="1" t="s">
         <v>3283</v>
-      </c>
-      <c r="CD273" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="CG273" s="1" t="s">
-        <v>3286</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61406,13 +61290,13 @@
         <v>799</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -61421,7 +61305,7 @@
         <v>101</v>
       </c>
       <c r="Q274" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="R274" s="1" t="s">
         <v>136</v>
@@ -61496,7 +61380,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -61508,13 +61392,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -61532,16 +61416,16 @@
         <v>101</v>
       </c>
       <c r="CC274" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="CD274" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="CE274" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="CG274" s="1" t="s">
         <v>3294</v>
-      </c>
-      <c r="CD274" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="CE274" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="CG274" s="1" t="s">
-        <v>3297</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61551,6 +61435,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI274" xr:uid="{7D16E650-9145-40CC-A940-BD64907B658A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>